--- a/projects/project-3/assignment/src/data/to-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/to-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,68 +487,68 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
+          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Date-time interval</t>
+          <t>Date-Time description</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>definition: Descripción de fecha y tiempo estructurada con valores separados para los diferentes elementos de un sistema calendario-reloj. El sistema de referencia temporal está fijado al calendario gregoriano, y el rango de las propiedades año, mes, día restringidas a los correspondientes tipos del XML Schema xsd:gYear, xsd:gMonth y xsd:gDay respectivamente.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
+          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>intervalo de fecha-hora</t>
+          <t>descripción de fecha-tiempo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>definition: Descripción de fecha y tiempo estructurada con valores separados para los diferentes elementos de un sistema calendario-reloj. El sistema de referencia temporal está fijado al calendario gregoriano, y el rango de las propiedades año, mes, día restringidas a los correspondientes tipos del XML Schema xsd:gYear, xsd:gMonth y xsd:gDay respectivamente.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
+          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Date-time interval</t>
+          <t>Date-Time description</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasDateTimeDescription</t>
+          <t>definition: Description of date and time structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of year, month, day properties restricted to corresponding XML Schema types xsd:gYear, xsd:gMonth and xsd:gDay, respectively.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
+          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>intervalo de fecha-hora</t>
+          <t>descripción de fecha-tiempo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasDateTimeDescription</t>
+          <t>definition: Description of date and time structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of year, month, day properties restricted to corresponding XML Schema types xsd:gYear, xsd:gMonth and xsd:gDay, respectively.</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#xsdDateTime</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
     </row>
@@ -582,483 +582,483 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#xsdDateTime</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DayOfWeek</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Day of week</t>
+          <t>Date-time interval</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>definition: 'intervalo de fecha-hora' es una subclase de 'intervalo propio', definida utilizando el multi-elemento 'descripción de fecha-hora'.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DayOfWeek</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>día de la semana</t>
+          <t>intervalo de fecha-hora</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>definition: 'intervalo de fecha-hora' es una subclase de 'intervalo propio', definida utilizando el multi-elemento 'descripción de fecha-hora'.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Date-time interval</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>definition: DateTimeInterval is a subclass of ProperInterval, defined using the multi-element DateTimeDescription.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>duración de tiempo</t>
+          <t>intervalo de fecha-hora</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>definition: DateTimeInterval is a subclass of ProperInterval, defined using the multi-element DateTimeDescription.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Date-time interval</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#numericDuration</t>
+          <t>domain of http://www.w3.org/2006/time#hasDateTimeDescription</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>duración de tiempo</t>
+          <t>intervalo de fecha-hora</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#numericDuration</t>
+          <t>domain of http://www.w3.org/2006/time#hasDateTimeDescription</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DurationDescription</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Duration description</t>
+          <t>Date-time interval</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>domain of http://www.w3.org/2006/time#xsdDateTime</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DurationDescription</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>descripción de duración</t>
+          <t>intervalo de fecha-hora</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>domain of http://www.w3.org/2006/time#xsdDateTime</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Day of week</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2002/07/owl#Thing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>día de la semana</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2002/07/owl#Thing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Day of week</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#day</t>
+          <t>definition: El día de la semana</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>día de la semana</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#day</t>
+          <t>definition: El día de la semana</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Day of week</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#dayOfWeek</t>
+          <t>definition: The day of week</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>día de la semana</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#dayOfWeek</t>
+          <t>definition: The day of week</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#dayOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>duración de tiempo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#dayOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hour</t>
+          <t>definition: Duración de una extensión temporal expresada como un número escalado por una unidad temporal.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>duración de tiempo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hour</t>
+          <t>definition: Duración de una extensión temporal expresada como un número escalado por una unidad temporal.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#minute</t>
+          <t>definition: Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>duración de tiempo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#minute</t>
+          <t>definition: Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#month</t>
+          <t>domain of http://www.w3.org/2006/time#numericDuration</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>duración de tiempo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#month</t>
+          <t>domain of http://www.w3.org/2006/time#numericDuration</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Duration description</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#monthOfYear</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>descripción de duración</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#monthOfYear</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Duration description</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#second</t>
+          <t>definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario. El sistema de referencia temporal se fija al calendario gregoriano, y el intervalo de cada una de las propiedades numéricas se restringe a xsd:decimal.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>descripción de duración</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#second</t>
+          <t>definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario. El sistema de referencia temporal se fija al calendario gregoriano, y el intervalo de cada una de las propiedades numéricas se restringe a xsd:decimal.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Duration description</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#timeZone</t>
+          <t>definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of each of the numeric properties is restricted to xsd:decimal</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>descripción de duración</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#timeZone</t>
+          <t>definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of each of the numeric properties is restricted to xsd:decimal</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#week</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#week</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#year</t>
+          <t>definition: Descripción de fecha y hora estructurada con valores separados para los distintos elementos de un sistema calendario-reloj.</t>
         </is>
       </c>
     </row>
@@ -1126,1775 +1126,3015 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#year</t>
+          <t>definition: Descripción de fecha y hora estructurada con valores separados para los distintos elementos de un sistema calendario-reloj.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>definition: Description of date and time structured with separate values for the various elements of a calendar-clock system</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>definition: Description of date and time structured with separate values for the various elements of a calendar-clock system</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#days</t>
+          <t>domain of http://www.w3.org/2006/time#day</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#days</t>
+          <t>domain of http://www.w3.org/2006/time#day</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hours</t>
+          <t>domain of http://www.w3.org/2006/time#dayOfWeek</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hours</t>
+          <t>domain of http://www.w3.org/2006/time#dayOfWeek</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#minutes</t>
+          <t>domain of http://www.w3.org/2006/time#dayOfYear</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#minutes</t>
+          <t>domain of http://www.w3.org/2006/time#dayOfYear</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#months</t>
+          <t>domain of http://www.w3.org/2006/time#hour</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#months</t>
+          <t>domain of http://www.w3.org/2006/time#hour</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#seconds</t>
+          <t>domain of http://www.w3.org/2006/time#minute</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#seconds</t>
+          <t>domain of http://www.w3.org/2006/time#minute</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#weeks</t>
+          <t>domain of http://www.w3.org/2006/time#month</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#weeks</t>
+          <t>domain of http://www.w3.org/2006/time#month</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#years</t>
+          <t>domain of http://www.w3.org/2006/time#monthOfYear</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#years</t>
+          <t>domain of http://www.w3.org/2006/time#monthOfYear</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>domain of http://www.w3.org/2006/time#second</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>domain of http://www.w3.org/2006/time#second</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inDateTime</t>
+          <t>domain of http://www.w3.org/2006/time#timeZone</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inDateTime</t>
+          <t>domain of http://www.w3.org/2006/time#timeZone</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inTemporalPosition</t>
+          <t>domain of http://www.w3.org/2006/time#week</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inTemporalPosition</t>
+          <t>domain of http://www.w3.org/2006/time#week</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inTimePosition</t>
+          <t>domain of http://www.w3.org/2006/time#year</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inTimePosition</t>
+          <t>domain of http://www.w3.org/2006/time#year</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDate</t>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDate</t>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDateTime</t>
+          <t>definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDateTime</t>
+          <t>definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDateTimeStamp</t>
+          <t>definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDateTimeStamp</t>
+          <t>definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDgYear</t>
+          <t>domain of http://www.w3.org/2006/time#days</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDgYear</t>
+          <t>domain of http://www.w3.org/2006/time#days</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDgYearMonth</t>
+          <t>domain of http://www.w3.org/2006/time#hours</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDgYearMonth</t>
+          <t>domain of http://www.w3.org/2006/time#hours</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Time interval</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>domain of http://www.w3.org/2006/time#minutes</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>intervalo de tiempo</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>domain of http://www.w3.org/2006/time#minutes</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Time interval</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inside</t>
+          <t>domain of http://www.w3.org/2006/time#months</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>intervalo de tiempo</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inside</t>
+          <t>domain of http://www.w3.org/2006/time#months</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
+          <t>domain of http://www.w3.org/2006/time#seconds</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>mes del año</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
+          <t>domain of http://www.w3.org/2006/time#seconds</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>domain of http://www.w3.org/2006/time#weeks</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>domain of http://www.w3.org/2006/time#weeks</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>domain of http://www.w3.org/2006/time#years</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>domain of http://www.w3.org/2006/time#years</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalAfter</t>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalAfter</t>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalBefore</t>
+          <t>definition: A temporal entity with zero extent or duration</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalBefore</t>
+          <t>definition: A temporal entity with zero extent or duration</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalContains</t>
+          <t>definition: Una entidad temporal con una extensión o duración cero.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalContains</t>
+          <t>definition: Una entidad temporal con una extensión o duración cero.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalDisjoint</t>
+          <t>domain of http://www.w3.org/2006/time#inDateTime</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalDisjoint</t>
+          <t>domain of http://www.w3.org/2006/time#inDateTime</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalDuring</t>
+          <t>domain of http://www.w3.org/2006/time#inTemporalPosition</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalDuring</t>
+          <t>domain of http://www.w3.org/2006/time#inTemporalPosition</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalEquals</t>
+          <t>domain of http://www.w3.org/2006/time#inTimePosition</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalEquals</t>
+          <t>domain of http://www.w3.org/2006/time#inTimePosition</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalFinishedBy</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDDate</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalFinishedBy</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDDate</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalFinishes</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDDateTime</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalFinishes</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDDateTime</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalIn</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDDateTimeStamp</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalIn</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDDateTimeStamp</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalMeets</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDgYear</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalMeets</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDgYear</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalMetBy</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDgYearMonth</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalMetBy</t>
+          <t>domain of http://www.w3.org/2006/time#inXSDgYearMonth</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time interval</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalOverlappedBy</t>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>intervalo de tiempo</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalOverlappedBy</t>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time interval</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalOverlaps</t>
+          <t>definition: A temporal entity with an extent or duration</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>intervalo de tiempo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalOverlaps</t>
+          <t>definition: A temporal entity with an extent or duration</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time interval</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalStartedBy</t>
+          <t>definition: Una entidad temporal con una extensión o duración.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>intervalo de tiempo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalStartedBy</t>
+          <t>definition: Una entidad temporal con una extensión o duración.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time interval</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalStarts</t>
+          <t>domain of http://www.w3.org/2006/time#inside</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>intervalo de tiempo</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalStarts</t>
+          <t>domain of http://www.w3.org/2006/time#inside</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>mes del año</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#after</t>
+          <t>definition: El mes del año.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>mes del año</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#after</t>
+          <t>definition: El mes del año.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#before</t>
+          <t>definition: The month of the year</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>mes del año</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#before</t>
+          <t>definition: The month of the year</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#disjoint</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#disjoint</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#equals</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#equals</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasBeginning</t>
+          <t>definition: A temporal entity with non-zero extent or duration, i.e., for which the value of the beginning and end are different</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasBeginning</t>
+          <t>definition: A temporal entity with non-zero extent or duration, i.e., for which the value of the beginning and end are different</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasEnd</t>
+          <t>definition: Una entidad temporal con extensión o duración distinta de cero, es decir, para la cual los valores de principio y fin del intervalo son diferentes.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasEnd</t>
+          <t>definition: Una entidad temporal con extensión o duración distinta de cero, es decir, para la cual los valores de principio y fin del intervalo son diferentes.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasInside</t>
+          <t>domain of http://www.w3.org/2006/time#intervalAfter</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasInside</t>
+          <t>domain of http://www.w3.org/2006/time#intervalAfter</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasTemporalDuration</t>
+          <t>domain of http://www.w3.org/2006/time#intervalBefore</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasTemporalDuration</t>
+          <t>domain of http://www.w3.org/2006/time#intervalBefore</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasXSDDuration</t>
+          <t>domain of http://www.w3.org/2006/time#intervalContains</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasXSDDuration</t>
+          <t>domain of http://www.w3.org/2006/time#intervalContains</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#notDisjoint</t>
+          <t>domain of http://www.w3.org/2006/time#intervalDisjoint</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#notDisjoint</t>
+          <t>domain of http://www.w3.org/2006/time#intervalDisjoint</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Temporal unit</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>domain of http://www.w3.org/2006/time#intervalDuring</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>unidad de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>domain of http://www.w3.org/2006/time#intervalDuring</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>domain of http://www.w3.org/2006/time#intervalEquals</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>posición de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>domain of http://www.w3.org/2006/time#intervalEquals</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#nominalPosition</t>
+          <t>domain of http://www.w3.org/2006/time#intervalFinishedBy</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>posición de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#nominalPosition</t>
+          <t>domain of http://www.w3.org/2006/time#intervalFinishedBy</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#numericPosition</t>
+          <t>domain of http://www.w3.org/2006/time#intervalFinishes</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>intervalo propio</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalFinishes</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Proper interval</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalIn</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>intervalo propio</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalIn</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Proper interval</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalMeets</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>intervalo propio</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalMeets</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Proper interval</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalMetBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>intervalo propio</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalMetBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Proper interval</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalOverlappedBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>intervalo propio</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalOverlappedBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Proper interval</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalOverlaps</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>intervalo propio</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalOverlaps</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Proper interval</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalStartedBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>intervalo propio</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalStartedBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Proper interval</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalStarts</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>intervalo propio</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#intervalStarts</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TRS</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Temporal Reference System</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>definition: A temporal reference system, such as a temporal coordinate system (with an origin, direction, and scale), a calendar-clock combination, or a (possibly hierarchical) ordinal system. 
+This is a stub class, representing the set of all temporal reference systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TRS</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>sistema de referencia temporal</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>definition: A temporal reference system, such as a temporal coordinate system (with an origin, direction, and scale), a calendar-clock combination, or a (possibly hierarchical) ordinal system. 
+This is a stub class, representing the set of all temporal reference systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TRS</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Temporal Reference System</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>definition: Un sistema de referencia temporal, tal como un sistema de coordenadas temporales (con un origen, una dirección y una escala), una combinación calendario-reloj, o un sistema ordinal (posiblemente jerárquico).
+    Esta clase comodín representa el conjunto de todos los sistemas de referencia temporal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TRS</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>sistema de referencia temporal</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>definition: Un sistema de referencia temporal, tal como un sistema de coordenadas temporales (con un origen, una dirección y una escala), una combinación calendario-reloj, o un sistema ordinal (posiblemente jerárquico).
+    Esta clase comodín representa el conjunto de todos los sistemas de referencia temporal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Temporal duration</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>definition: Extensión de tiempo; duración de un intervalo de tiempo independiente de su posición de inicio particular.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>duración temporal</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>definition: Extensión de tiempo; duración de un intervalo de tiempo independiente de su posición de inicio particular.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Temporal duration</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>definition: Time extent; duration of a time interval separate from its particular start position</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>duración temporal</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>definition: Time extent; duration of a time interval separate from its particular start position</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2002/07/owl#Thing</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2002/07/owl#Thing</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>definition: A temporal interval or instant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>definition: A temporal interval or instant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>definition: Un intervalo temporal o un instante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>definition: Un intervalo temporal o un instante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#after</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#after</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#before</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#before</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#disjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#disjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#equals</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#equals</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasBeginning</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasBeginning</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasEnd</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasEnd</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasInside</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasInside</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasTemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasTemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasXSDDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#hasXSDDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#notDisjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#notDisjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Temporal position</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>definition: A position on a time-line</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>posición temporal</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>definition: A position on a time-line</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Temporal position</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>definition: Una posición sobre una línea de tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>posición temporal</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>definition: Una posición sobre una línea de tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Temporal unit</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>unidad de tiempo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Temporal unit</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>definition: A standard duration, which provides a scale factor for a time extent, or the granularity or precision for a time position.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>unidad de tiempo</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>definition: A standard duration, which provides a scale factor for a time extent, or the granularity or precision for a time position.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Temporal unit</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>definition: Una duración estándar, que proporciona un factor de escala para una extensión de tiempo, o la granularidad o precisión para una posición de tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>unidad de tiempo</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>definition: Una duración estándar, que proporciona un factor de escala para una extensión de tiempo, o la granularidad o precisión para una posición de tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
           <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
         <is>
           <t>posición de tiempo</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">definition: A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system. </t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">definition: A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system. </t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>definition: Una posición temporal descrita utilizando bien un valor (nominal) de un sistema de referencia ordinal, o un valor (numérico) en un sistema de coordenadas temporales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>definition: Una posición temporal descrita utilizando bien un valor (nominal) de un sistema de referencia ordinal, o un valor (numérico) en un sistema de coordenadas temporales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#nominalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#nominalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
         <is>
           <t>domain of http://www.w3.org/2006/time#numericPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>domain of http://www.w3.org/2006/time#numericPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimeZone</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Time Zone</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">definition: 
+  A Time Zone specifies the amount by which the local time is offset from UTC. 
+	A time zone is usually denoted geographically (e.g., Australian Eastern Daylight Time), with a constant value in a given region. 
+The region where it applies and the offset from UTC are specified by a locally recognised governing authority.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimeZone</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>huso horario</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">definition: 
+  A Time Zone specifies the amount by which the local time is offset from UTC. 
+	A time zone is usually denoted geographically (e.g., Australian Eastern Daylight Time), with a constant value in a given region. 
+The region where it applies and the offset from UTC are specified by a locally recognised governing authority.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimeZone</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Time Zone</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>definition: Un huso horario especifica la cantidad en que la hora local está desplazada con respecto a UTC.
+    Un huso horario normalmente se denota geográficamente (p.ej. el horario de verano del este de Australia), con un valor constante en una región dada.
+    La región donde aplica y el desplazamiento desde UTC las especifica una autoridad gubernamental localmente reconocida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimeZone</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>huso horario</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>definition: Un huso horario especifica la cantidad en que la hora local está desplazada con respecto a UTC.
+    Un huso horario normalmente se denota geográficamente (p.ej. el horario de verano del este de Australia), con un valor constante en una región dada.
+    La región donde aplica y el desplazamiento desde UTC las especifica una autoridad gubernamental localmente reconocida.</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/to-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/to-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,34 +453,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Date-Time description</t>
-        </is>
-      </c>
+          <t>n6128792a111b47b7afa2e0070b19cc62b69</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>Domain of: http://www.w3.org/2006/time#hasTRS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>descripción de fecha-tiempo</t>
-        </is>
-      </c>
+          <t>n6128792a111b47b7afa2e0070b19cc62b72</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>Domain of: http://www.w3.org/2006/time#unitType</t>
         </is>
       </c>
     </row>
@@ -497,7 +489,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>definition: Descripción de fecha y tiempo estructurada con valores separados para los diferentes elementos de un sistema calendario-reloj. El sistema de referencia temporal está fijado al calendario gregoriano, y el rango de las propiedades año, mes, día restringidas a los correspondientes tipos del XML Schema xsd:gYear, xsd:gMonth y xsd:gDay respectivamente.</t>
+          <t>Definition: Descripción de fecha y tiempo estructurada con valores separados para los diferentes elementos de un sistema calendario-reloj. El sistema de referencia temporal está fijado al calendario gregoriano, y el rango de las propiedades año, mes, día restringidas a los correspondientes tipos del XML Schema xsd:gYear, xsd:gMonth y xsd:gDay respectivamente.</t>
         </is>
       </c>
     </row>
@@ -514,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>definition: Descripción de fecha y tiempo estructurada con valores separados para los diferentes elementos de un sistema calendario-reloj. El sistema de referencia temporal está fijado al calendario gregoriano, y el rango de las propiedades año, mes, día restringidas a los correspondientes tipos del XML Schema xsd:gYear, xsd:gMonth y xsd:gDay respectivamente.</t>
+          <t>Definition: Descripción de fecha y tiempo estructurada con valores separados para los diferentes elementos de un sistema calendario-reloj. El sistema de referencia temporal está fijado al calendario gregoriano, y el rango de las propiedades año, mes, día restringidas a los correspondientes tipos del XML Schema xsd:gYear, xsd:gMonth y xsd:gDay respectivamente.</t>
         </is>
       </c>
     </row>
@@ -531,7 +523,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>definition: Description of date and time structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of year, month, day properties restricted to corresponding XML Schema types xsd:gYear, xsd:gMonth and xsd:gDay, respectively.</t>
+          <t>Definition: Description of date and time structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of year, month, day properties restricted to corresponding XML Schema types xsd:gYear, xsd:gMonth and xsd:gDay, respectively.</t>
         </is>
       </c>
     </row>
@@ -548,41 +540,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>definition: Description of date and time structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of year, month, day properties restricted to corresponding XML Schema types xsd:gYear, xsd:gMonth and xsd:gDay, respectively.</t>
+          <t>Definition: Description of date and time structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of year, month, day properties restricted to corresponding XML Schema types xsd:gYear, xsd:gMonth and xsd:gDay, respectively.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
+          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Date-time interval</t>
+          <t>Date-Time description</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
+          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>intervalo de fecha-hora</t>
+          <t>descripción de fecha-tiempo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
     </row>
@@ -599,7 +591,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>definition: 'intervalo de fecha-hora' es una subclase de 'intervalo propio', definida utilizando el multi-elemento 'descripción de fecha-hora'.</t>
+          <t>Definition: 'intervalo de fecha-hora' es una subclase de 'intervalo propio', definida utilizando el multi-elemento 'descripción de fecha-hora'.</t>
         </is>
       </c>
     </row>
@@ -616,7 +608,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>definition: 'intervalo de fecha-hora' es una subclase de 'intervalo propio', definida utilizando el multi-elemento 'descripción de fecha-hora'.</t>
+          <t>Definition: 'intervalo de fecha-hora' es una subclase de 'intervalo propio', definida utilizando el multi-elemento 'descripción de fecha-hora'.</t>
         </is>
       </c>
     </row>
@@ -633,7 +625,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>definition: DateTimeInterval is a subclass of ProperInterval, defined using the multi-element DateTimeDescription.</t>
+          <t>Definition: DateTimeInterval is a subclass of ProperInterval, defined using the multi-element DateTimeDescription.</t>
         </is>
       </c>
     </row>
@@ -650,7 +642,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>definition: DateTimeInterval is a subclass of ProperInterval, defined using the multi-element DateTimeDescription.</t>
+          <t>Definition: DateTimeInterval is a subclass of ProperInterval, defined using the multi-element DateTimeDescription.</t>
         </is>
       </c>
     </row>
@@ -667,7 +659,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasDateTimeDescription</t>
+          <t>Domain of: http://www.w3.org/2006/time#hasDateTimeDescription</t>
         </is>
       </c>
     </row>
@@ -684,7 +676,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasDateTimeDescription</t>
+          <t>Domain of: http://www.w3.org/2006/time#hasDateTimeDescription</t>
         </is>
       </c>
     </row>
@@ -701,7 +693,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#xsdDateTime</t>
+          <t>Domain of: http://www.w3.org/2006/time#xsdDateTime</t>
         </is>
       </c>
     </row>
@@ -718,41 +710,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#xsdDateTime</t>
+          <t>Domain of: http://www.w3.org/2006/time#xsdDateTime</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DayOfWeek</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Day of week</t>
+          <t>Date-time interval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DayOfWeek</t>
+          <t>http://www.w3.org/2006/time#DateTimeInterval</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>día de la semana</t>
+          <t>intervalo de fecha-hora</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
     </row>
@@ -769,7 +761,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>definition: El día de la semana</t>
+          <t>Definition: El día de la semana</t>
         </is>
       </c>
     </row>
@@ -786,7 +778,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>definition: El día de la semana</t>
+          <t>Definition: El día de la semana</t>
         </is>
       </c>
     </row>
@@ -803,7 +795,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>definition: The day of week</t>
+          <t>Definition: The day of week</t>
         </is>
       </c>
     </row>
@@ -820,75 +812,75 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>definition: The day of week</t>
+          <t>Definition: The day of week</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Day of week</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>Range of: http://www.w3.org/2006/time#dayOfWeek</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>duración de tiempo</t>
+          <t>día de la semana</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>Range of: http://www.w3.org/2006/time#dayOfWeek</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Day of week</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>definition: Duración de una extensión temporal expresada como un número escalado por una unidad temporal.</t>
+          <t>SubClassOf: http://www.w3.org/2002/07/owl#Thing</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#DayOfWeek</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>duración de tiempo</t>
+          <t>día de la semana</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>definition: Duración de una extensión temporal expresada como un número escalado por una unidad temporal.</t>
+          <t>SubClassOf: http://www.w3.org/2002/07/owl#Thing</t>
         </is>
       </c>
     </row>
@@ -905,7 +897,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>definition: Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+          <t>Definition: Duración de una extensión temporal expresada como un número escalado por una unidad temporal.</t>
         </is>
       </c>
     </row>
@@ -922,7 +914,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>definition: Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
+          <t>Definition: Duración de una extensión temporal expresada como un número escalado por una unidad temporal.</t>
         </is>
       </c>
     </row>
@@ -939,7 +931,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#numericDuration</t>
+          <t>Definition: Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
         </is>
       </c>
     </row>
@@ -956,211 +948,211 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#numericDuration</t>
+          <t>Definition: Duration of a temporal extent expressed as a number scaled by a temporal unit</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DurationDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Duration description</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>Domain of: http://www.w3.org/2006/time#numericDuration</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DurationDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>descripción de duración</t>
+          <t>duración de tiempo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>Domain of: http://www.w3.org/2006/time#numericDuration</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DurationDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Duration description</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario. El sistema de referencia temporal se fija al calendario gregoriano, y el intervalo de cada una de las propiedades numéricas se restringe a xsd:decimal.</t>
+          <t>Range of: http://www.w3.org/2006/time#hasDuration</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DurationDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>descripción de duración</t>
+          <t>duración de tiempo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario. El sistema de referencia temporal se fija al calendario gregoriano, y el intervalo de cada una de las propiedades numéricas se restringe a xsd:decimal.</t>
+          <t>Range of: http://www.w3.org/2006/time#hasDuration</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DurationDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Duration description</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of each of the numeric properties is restricted to xsd:decimal</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalDuration</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DurationDescription</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>descripción de duración</t>
+          <t>duración de tiempo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of each of the numeric properties is restricted to xsd:decimal</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalDuration</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Duration description</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>Definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario. El sistema de referencia temporal se fija al calendario gregoriano, y el intervalo de cada una de las propiedades numéricas se restringe a xsd:decimal.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>descripción de duración</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>Definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario. El sistema de referencia temporal se fija al calendario gregoriano, y el intervalo de cada una de las propiedades numéricas se restringe a xsd:decimal.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Duration description</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>definition: Descripción de fecha y hora estructurada con valores separados para los distintos elementos de un sistema calendario-reloj.</t>
+          <t>Definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of each of the numeric properties is restricted to xsd:decimal</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>descripción de duración</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>definition: Descripción de fecha y hora estructurada con valores separados para los distintos elementos de un sistema calendario-reloj.</t>
+          <t>Definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system. The temporal reference system is fixed to Gregorian Calendar, and the range of each of the numeric properties is restricted to xsd:decimal</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Generalized date-time description</t>
+          <t>Duration description</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>definition: Description of date and time structured with separate values for the various elements of a calendar-clock system</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
+          <t>http://www.w3.org/2006/time#DurationDescription</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>descripción de fecha-hora generalizada</t>
+          <t>descripción de duración</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>definition: Description of date and time structured with separate values for the various elements of a calendar-clock system</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1169,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#day</t>
+          <t>Definition: Descripción de fecha y hora estructurada con valores separados para los distintos elementos de un sistema calendario-reloj.</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1186,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#day</t>
+          <t>Definition: Descripción de fecha y hora estructurada con valores separados para los distintos elementos de un sistema calendario-reloj.</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1203,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#dayOfWeek</t>
+          <t>Definition: Description of date and time structured with separate values for the various elements of a calendar-clock system</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1220,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#dayOfWeek</t>
+          <t>Definition: Description of date and time structured with separate values for the various elements of a calendar-clock system</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1237,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#dayOfYear</t>
+          <t>Domain of: http://www.w3.org/2006/time#day</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1254,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#dayOfYear</t>
+          <t>Domain of: http://www.w3.org/2006/time#day</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1271,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hour</t>
+          <t>Domain of: http://www.w3.org/2006/time#dayOfWeek</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1288,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hour</t>
+          <t>Domain of: http://www.w3.org/2006/time#dayOfWeek</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1305,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#minute</t>
+          <t>Domain of: http://www.w3.org/2006/time#dayOfYear</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1322,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#minute</t>
+          <t>Domain of: http://www.w3.org/2006/time#dayOfYear</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1339,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#month</t>
+          <t>Domain of: http://www.w3.org/2006/time#hour</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1356,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#month</t>
+          <t>Domain of: http://www.w3.org/2006/time#hour</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1373,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#monthOfYear</t>
+          <t>Domain of: http://www.w3.org/2006/time#minute</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1390,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#monthOfYear</t>
+          <t>Domain of: http://www.w3.org/2006/time#minute</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1407,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#second</t>
+          <t>Domain of: http://www.w3.org/2006/time#month</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1424,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#second</t>
+          <t>Domain of: http://www.w3.org/2006/time#month</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1441,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#timeZone</t>
+          <t>Domain of: http://www.w3.org/2006/time#monthOfYear</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1458,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#timeZone</t>
+          <t>Domain of: http://www.w3.org/2006/time#monthOfYear</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1475,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#week</t>
+          <t>Domain of: http://www.w3.org/2006/time#second</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1492,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#week</t>
+          <t>Domain of: http://www.w3.org/2006/time#second</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1509,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#year</t>
+          <t>Domain of: http://www.w3.org/2006/time#timeZone</t>
         </is>
       </c>
     </row>
@@ -1534,177 +1526,177 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#year</t>
+          <t>Domain of: http://www.w3.org/2006/time#timeZone</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>Domain of: http://www.w3.org/2006/time#week</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>Domain of: http://www.w3.org/2006/time#week</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario.</t>
+          <t>Domain of: http://www.w3.org/2006/time#year</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario.</t>
+          <t>Domain of: http://www.w3.org/2006/time#year</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system.</t>
+          <t>Range of: http://www.w3.org/2006/time#hasDateTimeDescription</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system.</t>
+          <t>Range of: http://www.w3.org/2006/time#hasDateTimeDescription</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#days</t>
+          <t>Range of: http://www.w3.org/2006/time#inDateTime</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#days</t>
+          <t>Range of: http://www.w3.org/2006/time#inDateTime</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Generalized duration description</t>
+          <t>Generalized date-time description</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hours</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
+          <t>http://www.w3.org/2006/time#GeneralDateTimeDescription</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>descripción de duración generalizada</t>
+          <t>descripción de fecha-hora generalizada</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hours</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1713,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#minutes</t>
+          <t>Definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario.</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1730,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#minutes</t>
+          <t>Definition: Descripción de extensión temporal estructurada con valores separados para los distintos elementos de un sistema de horario-calendario.</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1747,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#months</t>
+          <t>Definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system.</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1764,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#months</t>
+          <t>Definition: Description of temporal extent structured with separate values for the various elements of a calendar-clock system.</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1781,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#seconds</t>
+          <t>Domain of: http://www.w3.org/2006/time#days</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1798,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#seconds</t>
+          <t>Domain of: http://www.w3.org/2006/time#days</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1815,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#weeks</t>
+          <t>Domain of: http://www.w3.org/2006/time#hours</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1832,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#weeks</t>
+          <t>Domain of: http://www.w3.org/2006/time#hours</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1849,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#years</t>
+          <t>Domain of: http://www.w3.org/2006/time#minutes</t>
         </is>
       </c>
     </row>
@@ -1874,211 +1866,211 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#years</t>
+          <t>Domain of: http://www.w3.org/2006/time#minutes</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>Domain of: http://www.w3.org/2006/time#months</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>Domain of: http://www.w3.org/2006/time#months</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>definition: A temporal entity with zero extent or duration</t>
+          <t>Domain of: http://www.w3.org/2006/time#seconds</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>definition: A temporal entity with zero extent or duration</t>
+          <t>Domain of: http://www.w3.org/2006/time#seconds</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>definition: Una entidad temporal con una extensión o duración cero.</t>
+          <t>Domain of: http://www.w3.org/2006/time#weeks</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>definition: Una entidad temporal con una extensión o duración cero.</t>
+          <t>Domain of: http://www.w3.org/2006/time#weeks</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inDateTime</t>
+          <t>Domain of: http://www.w3.org/2006/time#years</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inDateTime</t>
+          <t>Domain of: http://www.w3.org/2006/time#years</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inTemporalPosition</t>
+          <t>Range of: http://www.w3.org/2006/time#hasDurationDescription</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inTemporalPosition</t>
+          <t>Range of: http://www.w3.org/2006/time#hasDurationDescription</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Time instant</t>
+          <t>Generalized duration description</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inTimePosition</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalDuration</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>http://www.w3.org/2006/time#GeneralDurationDescription</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>instante de tiempo.</t>
+          <t>descripción de duración generalizada</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inTimePosition</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalDuration</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2087,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDate</t>
+          <t>Definition: A temporal entity with zero extent or duration</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2104,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDate</t>
+          <t>Definition: A temporal entity with zero extent or duration</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2121,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDateTime</t>
+          <t>Definition: Una entidad temporal con una extensión o duración cero.</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2138,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDateTime</t>
+          <t>Definition: Una entidad temporal con una extensión o duración cero.</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2155,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDateTimeStamp</t>
+          <t>Domain of: http://www.w3.org/2006/time#inDateTime</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2172,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDDateTimeStamp</t>
+          <t>Domain of: http://www.w3.org/2006/time#inDateTime</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2189,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDgYear</t>
+          <t>Domain of: http://www.w3.org/2006/time#inTemporalPosition</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2206,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDgYear</t>
+          <t>Domain of: http://www.w3.org/2006/time#inTemporalPosition</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2223,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDgYearMonth</t>
+          <t>Domain of: http://www.w3.org/2006/time#inTimePosition</t>
         </is>
       </c>
     </row>
@@ -2248,585 +2240,585 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inXSDgYearMonth</t>
+          <t>Domain of: http://www.w3.org/2006/time#inTimePosition</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Time interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDDate</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>intervalo de tiempo</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDDate</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Time interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>definition: A temporal entity with an extent or duration</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDDateTime</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>intervalo de tiempo</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>definition: A temporal entity with an extent or duration</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDDateTime</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Time interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>definition: Una entidad temporal con una extensión o duración.</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDDateTimeStamp</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>intervalo de tiempo</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>definition: Una entidad temporal con una extensión o duración.</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDDateTimeStamp</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Time interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inside</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDgYear</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>intervalo de tiempo</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#inside</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDgYear</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDgYearMonth</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>mes del año</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#DateTimeDescription</t>
+          <t>Domain of: http://www.w3.org/2006/time#inXSDgYearMonth</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>definition: El mes del año.</t>
+          <t>Range of: http://www.w3.org/2006/time#hasBeginning</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>mes del año</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>definition: El mes del año.</t>
+          <t>Range of: http://www.w3.org/2006/time#hasBeginning</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>definition: The month of the year</t>
+          <t>Range of: http://www.w3.org/2006/time#hasEnd</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>mes del año</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>definition: The month of the year</t>
+          <t>Range of: http://www.w3.org/2006/time#hasEnd</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>Range of: http://www.w3.org/2006/time#inside</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Instant</t>
+          <t>Range of: http://www.w3.org/2006/time#inside</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time instant</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalEntity</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>instante de tiempo.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Interval</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalEntity</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time interval</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>definition: A temporal entity with non-zero extent or duration, i.e., for which the value of the beginning and end are different</t>
+          <t>Definition: A temporal entity with an extent or duration</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>intervalo de tiempo</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>definition: A temporal entity with non-zero extent or duration, i.e., for which the value of the beginning and end are different</t>
+          <t>Definition: A temporal entity with an extent or duration</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time interval</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>definition: Una entidad temporal con extensión o duración distinta de cero, es decir, para la cual los valores de principio y fin del intervalo son diferentes.</t>
+          <t>Definition: Una entidad temporal con una extensión o duración.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>intervalo de tiempo</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>definition: Una entidad temporal con extensión o duración distinta de cero, es decir, para la cual los valores de principio y fin del intervalo son diferentes.</t>
+          <t>Definition: Una entidad temporal con una extensión o duración.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time interval</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalAfter</t>
+          <t>Domain of: http://www.w3.org/2006/time#inside</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>intervalo de tiempo</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalAfter</t>
+          <t>Domain of: http://www.w3.org/2006/time#inside</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Time interval</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalBefore</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalEntity</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>intervalo de tiempo</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalBefore</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalEntity</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalContains</t>
+          <t>Definition: El mes del año.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>mes del año</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalContains</t>
+          <t>Definition: El mes del año.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalDisjoint</t>
+          <t>Definition: The month of the year</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>mes del año</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalDisjoint</t>
+          <t>Definition: The month of the year</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalDuring</t>
+          <t>Range of: http://www.w3.org/2006/time#monthOfYear</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>mes del año</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalDuring</t>
+          <t>Range of: http://www.w3.org/2006/time#monthOfYear</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Proper interval</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalEquals</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#ProperInterval</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>intervalo propio</t>
+          <t>mes del año</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalEquals</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#DateTimeDescription</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2835,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalFinishedBy</t>
+          <t>Definition: A temporal entity with non-zero extent or duration, i.e., for which the value of the beginning and end are different</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2852,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalFinishedBy</t>
+          <t>Definition: A temporal entity with non-zero extent or duration, i.e., for which the value of the beginning and end are different</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2869,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalFinishes</t>
+          <t>Definition: Una entidad temporal con extensión o duración distinta de cero, es decir, para la cual los valores de principio y fin del intervalo son diferentes.</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2886,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalFinishes</t>
+          <t>Definition: Una entidad temporal con extensión o duración distinta de cero, es decir, para la cual los valores de principio y fin del intervalo son diferentes.</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2903,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalIn</t>
+          <t>DisjointWith: http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2920,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalIn</t>
+          <t>DisjointWith: http://www.w3.org/2006/time#Instant</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2937,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalMeets</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalAfter</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2954,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalMeets</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalAfter</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2971,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalMetBy</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalBefore</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2988,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalMetBy</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalBefore</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3005,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalOverlappedBy</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalContains</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3022,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalOverlappedBy</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalContains</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3039,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalOverlaps</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalDisjoint</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3056,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalOverlaps</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalDisjoint</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3073,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalStartedBy</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalDuring</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3090,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalStartedBy</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalDuring</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3107,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalStarts</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalEquals</t>
         </is>
       </c>
     </row>
@@ -3132,946 +3124,2204 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#intervalStarts</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalEquals</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TRS</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Temporal Reference System</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>definition: A temporal reference system, such as a temporal coordinate system (with an origin, direction, and scale), a calendar-clock combination, or a (possibly hierarchical) ordinal system. 
-This is a stub class, representing the set of all temporal reference systems.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalFinishedBy</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TRS</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>sistema de referencia temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>definition: A temporal reference system, such as a temporal coordinate system (with an origin, direction, and scale), a calendar-clock combination, or a (possibly hierarchical) ordinal system. 
-This is a stub class, representing the set of all temporal reference systems.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalFinishedBy</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TRS</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Temporal Reference System</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>definition: Un sistema de referencia temporal, tal como un sistema de coordenadas temporales (con un origen, una dirección y una escala), una combinación calendario-reloj, o un sistema ordinal (posiblemente jerárquico).
-    Esta clase comodín representa el conjunto de todos los sistemas de referencia temporal.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalFinishes</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TRS</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>sistema de referencia temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>definition: Un sistema de referencia temporal, tal como un sistema de coordenadas temporales (con un origen, una dirección y una escala), una combinación calendario-reloj, o un sistema ordinal (posiblemente jerárquico).
-    Esta clase comodín representa el conjunto de todos los sistemas de referencia temporal.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalFinishes</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Temporal duration</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>definition: Extensión de tiempo; duración de un intervalo de tiempo independiente de su posición de inicio particular.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalIn</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>duración temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>definition: Extensión de tiempo; duración de un intervalo de tiempo independiente de su posición de inicio particular.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalIn</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Temporal duration</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>definition: Time extent; duration of a time interval separate from its particular start position</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalMeets</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>duración temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>definition: Time extent; duration of a time interval separate from its particular start position</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalMeets</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalMetBy</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#Thing</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalMetBy</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>definition: A temporal interval or instant.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalOverlappedBy</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>definition: A temporal interval or instant.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalOverlappedBy</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>definition: Un intervalo temporal o un instante.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalOverlaps</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>definition: Un intervalo temporal o un instante.</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalOverlaps</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#after</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalStartedBy</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#after</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalStartedBy</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#before</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalStarts</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#before</t>
+          <t>Domain of: http://www.w3.org/2006/time#intervalStarts</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#disjoint</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalAfter</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#disjoint</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalAfter</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#equals</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalBefore</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#equals</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalBefore</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasBeginning</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalContains</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasBeginning</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalContains</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasEnd</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalDisjoint</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasEnd</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalDisjoint</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasInside</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalDuring</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasInside</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalDuring</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasTemporalDuration</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalEquals</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasTemporalDuration</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalEquals</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasXSDDuration</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalFinishedBy</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#hasXSDDuration</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalFinishedBy</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Temporal entity</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#notDisjoint</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalFinishes</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>entidad temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#notDisjoint</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalFinishes</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>definition: A position on a time-line</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalIn</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>posición temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>definition: A position on a time-line</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalIn</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>definition: Una posición sobre una línea de tiempo.</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalMeets</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>posición temporal</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>definition: Una posición sobre una línea de tiempo.</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalMeets</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Temporal unit</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalMetBy</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>unidad de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalMetBy</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Temporal unit</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>definition: A standard duration, which provides a scale factor for a time extent, or the granularity or precision for a time position.</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalOverlappedBy</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>unidad de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>definition: A standard duration, which provides a scale factor for a time extent, or the granularity or precision for a time position.</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalOverlappedBy</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Temporal unit</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>definition: Una duración estándar, que proporciona un factor de escala para una extensión de tiempo, o la granularidad o precisión para una posición de tiempo.</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalOverlaps</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>unidad de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>definition: Una duración estándar, que proporciona un factor de escala para una extensión de tiempo, o la granularidad o precisión para una posición de tiempo.</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalOverlaps</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalStartedBy</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>posición de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>Range of: http://www.w3.org/2006/time#intervalStartedBy</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">definition: A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system. </t>
+          <t>Range of: http://www.w3.org/2006/time#intervalStarts</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>posición de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve">definition: A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system. </t>
+          <t>Range of: http://www.w3.org/2006/time#intervalStarts</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Proper interval</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>definition: Una posición temporal descrita utilizando bien un valor (nominal) de un sistema de referencia ordinal, o un valor (numérico) en un sistema de coordenadas temporales.</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#ProperInterval</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>posición de tiempo</t>
+          <t>intervalo propio</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>definition: Una posición temporal descrita utilizando bien un valor (nominal) de un sistema de referencia ordinal, o un valor (numérico) en un sistema de coordenadas temporales.</t>
+          <t>SubClassOf: http://www.w3.org/2006/time#Interval</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TRS</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal Reference System</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#nominalPosition</t>
+          <t>Definition: A temporal reference system, such as a temporal coordinate system (with an origin, direction, and scale), a calendar-clock combination, or a (possibly hierarchical) ordinal system. 
+This is a stub class, representing the set of all temporal reference systems.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TRS</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>posición de tiempo</t>
+          <t>sistema de referencia temporal</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#nominalPosition</t>
+          <t>Definition: A temporal reference system, such as a temporal coordinate system (with an origin, direction, and scale), a calendar-clock combination, or a (possibly hierarchical) ordinal system. 
+This is a stub class, representing the set of all temporal reference systems.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TRS</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal Reference System</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#numericPosition</t>
+          <t>Definition: Un sistema de referencia temporal, tal como un sistema de coordenadas temporales (con un origen, una dirección y una escala), una combinación calendario-reloj, o un sistema ordinal (posiblemente jerárquico).
+    Esta clase comodín representa el conjunto de todos los sistemas de referencia temporal.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TRS</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>posición de tiempo</t>
+          <t>sistema de referencia temporal</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>domain of http://www.w3.org/2006/time#numericPosition</t>
+          <t>Definition: Un sistema de referencia temporal, tal como un sistema de coordenadas temporales (con un origen, una dirección y una escala), una combinación calendario-reloj, o un sistema ordinal (posiblemente jerárquico).
+    Esta clase comodín representa el conjunto de todos los sistemas de referencia temporal.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>http://www.w3.org/2006/time#TRS</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Temporal Reference System</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#hasTRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TRS</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>sistema de referencia temporal</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#hasTRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Temporal duration</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Definition: Extensión de tiempo; duración de un intervalo de tiempo independiente de su posición de inicio particular.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>duración temporal</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Definition: Extensión de tiempo; duración de un intervalo de tiempo independiente de su posición de inicio particular.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Temporal duration</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Definition: Time extent; duration of a time interval separate from its particular start position</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>duración temporal</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Definition: Time extent; duration of a time interval separate from its particular start position</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Temporal duration</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#hasTemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>duración temporal</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#hasTemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Definition: A temporal interval or instant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Definition: A temporal interval or instant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Definition: Un intervalo temporal o un instante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Definition: Un intervalo temporal o un instante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#after</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#after</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#before</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#before</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#disjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#disjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#equals</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#equals</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasBeginning</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasBeginning</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasEnd</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasEnd</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasInside</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasInside</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasTemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasTemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasXSDDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#hasXSDDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#notDisjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#notDisjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#after</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#after</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#before</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#before</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#disjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#disjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#equals</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#equals</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#hasInside</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#hasInside</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#hasTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#hasTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#notDisjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#notDisjoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Temporal entity</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://www.w3.org/2002/07/owl#Thing</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalEntity</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>entidad temporal</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://www.w3.org/2002/07/owl#Thing</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Temporal position</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Definition: A position on a time-line</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>posición temporal</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Definition: A position on a time-line</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Temporal position</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Definition: Una posición sobre una línea de tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>posición temporal</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Definition: Una posición sobre una línea de tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Temporal position</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#inTemporalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>posición temporal</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#inTemporalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Temporal unit</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Definition: A standard duration, which provides a scale factor for a time extent, or the granularity or precision for a time position.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>unidad de tiempo</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Definition: A standard duration, which provides a scale factor for a time extent, or the granularity or precision for a time position.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Temporal unit</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Definition: Una duración estándar, que proporciona un factor de escala para una extensión de tiempo, o la granularidad o precisión para una posición de tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>unidad de tiempo</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Definition: Una duración estándar, que proporciona un factor de escala para una extensión de tiempo, o la granularidad o precisión para una posición de tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Temporal unit</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#unitType</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>unidad de tiempo</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#unitType</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Temporal unit</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TemporalUnit</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>unidad de tiempo</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalDuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Definition: A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system. </t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Definition: A temporal position described using either a (nominal) value from an ordinal reference system, or a (numeric) value in a temporal coordinate system. </t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Definition: Una posición temporal descrita utilizando bien un valor (nominal) de un sistema de referencia ordinal, o un valor (numérico) en un sistema de coordenadas temporales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Definition: Una posición temporal descrita utilizando bien un valor (nominal) de un sistema de referencia ordinal, o un valor (numérico) en un sistema de coordenadas temporales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#nominalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#nominalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#numericPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Domain of: http://www.w3.org/2006/time#numericPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#inTimePosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#inTimePosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Time position</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>posición de tiempo</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SubClassOf: http://www.w3.org/2006/time#TemporalPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
           <t>http://www.w3.org/2006/time#TimeZone</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>Time Zone</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">definition: 
+      <c r="C288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Definition: 
   A Time Zone specifies the amount by which the local time is offset from UTC. 
 	A time zone is usually denoted geographically (e.g., Australian Eastern Daylight Time), with a constant value in a given region. 
 The region where it applies and the offset from UTC are specified by a locally recognised governing authority.
@@ -4079,20 +5329,20 @@
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="289">
+      <c r="A289" t="inlineStr">
         <is>
           <t>http://www.w3.org/2006/time#TimeZone</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B289" t="inlineStr">
         <is>
           <t>huso horario</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">definition: 
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Definition: 
   A Time Zone specifies the amount by which the local time is offset from UTC. 
 	A time zone is usually denoted geographically (e.g., Australian Eastern Daylight Time), with a constant value in a given region. 
 The region where it applies and the offset from UTC are specified by a locally recognised governing authority.
@@ -4100,41 +5350,75 @@
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="290">
+      <c r="A290" t="inlineStr">
         <is>
           <t>http://www.w3.org/2006/time#TimeZone</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B290" t="inlineStr">
         <is>
           <t>Time Zone</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>definition: Un huso horario especifica la cantidad en que la hora local está desplazada con respecto a UTC.
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Definition: Un huso horario especifica la cantidad en que la hora local está desplazada con respecto a UTC.
     Un huso horario normalmente se denota geográficamente (p.ej. el horario de verano del este de Australia), con un valor constante en una región dada.
     La región donde aplica y el desplazamiento desde UTC las especifica una autoridad gubernamental localmente reconocida.</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="291">
+      <c r="A291" t="inlineStr">
         <is>
           <t>http://www.w3.org/2006/time#TimeZone</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>huso horario</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>definition: Un huso horario especifica la cantidad en que la hora local está desplazada con respecto a UTC.
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Definition: Un huso horario especifica la cantidad en que la hora local está desplazada con respecto a UTC.
     Un huso horario normalmente se denota geográficamente (p.ej. el horario de verano del este de Australia), con un valor constante en una región dada.
     La región donde aplica y el desplazamiento desde UTC las especifica una autoridad gubernamental localmente reconocida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimeZone</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Time Zone</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#timeZone</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#TimeZone</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>huso horario</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Range of: http://www.w3.org/2006/time#timeZone</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/to-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/to-axioms.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>n6128792a111b47b7afa2e0070b19cc62b69</t>
+          <t>n123576e4c56f49568114e49c73899593b69</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>n6128792a111b47b7afa2e0070b19cc62b72</t>
+          <t>n123576e4c56f49568114e49c73899593b72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>

--- a/projects/project-3/assignment/src/data/to-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/to-axioms.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>n123576e4c56f49568114e49c73899593b69</t>
+          <t>nc0452e1021f34f22bdad122c2de3d8aab69</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>n123576e4c56f49568114e49c73899593b72</t>
+          <t>nc0452e1021f34f22bdad122c2de3d8aab72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>

--- a/projects/project-3/assignment/src/data/to-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/to-axioms.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nc0452e1021f34f22bdad122c2de3d8aab69</t>
+          <t>ne5bde88ead48446d91f13136b9da6855b69</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nc0452e1021f34f22bdad122c2de3d8aab72</t>
+          <t>ne5bde88ead48446d91f13136b9da6855b72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
